--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/77/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/77/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.1523152315231523</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>740.7407407407408</v>
+        <v>1155.745574557456</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008608608608608608</v>
+        <v>0.07741774177417741</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4914914914914915</v>
+        <v>0.6404640464046405</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1111.111111111111</v>
+        <v>1455.975597559756</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.05005005005005</v>
+        <v>706.5706570657065</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>228.2282282282283</v>
+        <v>890.7983798379837</v>
       </c>
     </row>
   </sheetData>
